--- a/Dashboards/Data 2/base_1.xlsx
+++ b/Dashboards/Data 2/base_1.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Observatorio\Observatorio-Desigualdad-Pobreza\Dashboards\Data 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A24AB7-6236-4010-9B42-EC54C9CB731E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1D8791-6515-4B9B-8C8F-5CF189C8FB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINI" sheetId="1" r:id="rId1"/>
     <sheet name="INGRESOS" sheetId="2" r:id="rId2"/>
     <sheet name="CRECIMIENTO" sheetId="3" r:id="rId3"/>
     <sheet name="GINI ALC" sheetId="4" r:id="rId4"/>
-    <sheet name="WID_INGRESO" sheetId="5" r:id="rId5"/>
-    <sheet name="WID_INGRESO_ALC" sheetId="6" r:id="rId6"/>
-    <sheet name="WID_RIQUEZA" sheetId="7" r:id="rId7"/>
-    <sheet name="WID_RIQUEZA_ALC" sheetId="8" r:id="rId8"/>
+    <sheet name="POBREZA" sheetId="9" r:id="rId5"/>
+    <sheet name="WID_INGRESO" sheetId="5" r:id="rId6"/>
+    <sheet name="WID_INGRESO_ALC" sheetId="6" r:id="rId7"/>
+    <sheet name="WID_RIQUEZA" sheetId="7" r:id="rId8"/>
+    <sheet name="WID_RIQUEZA_ALC" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CRECIMIENTO!$A$1:$D$45</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="58">
   <si>
     <t xml:space="preserve">Año </t>
   </si>
@@ -184,6 +185,27 @@
   <si>
     <t>valor</t>
   </si>
+  <si>
+    <t>Nivel</t>
+  </si>
+  <si>
+    <t>Pobreza</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Pobreza Extrema</t>
+  </si>
+  <si>
+    <t>NBI</t>
+  </si>
+  <si>
+    <t>Pobreza Extrema Multidimensional</t>
+  </si>
+  <si>
+    <t>Pobreza Multidimensional</t>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -281,6 +303,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4300,6 +4323,3689 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D529709-2341-466B-BD6E-0491C24B758B}">
+  <dimension ref="A1:D262"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2007</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9">
+        <v>36.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2007</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9">
+        <v>61.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2007</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>24.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2007</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="9">
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2007</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9">
+        <v>33.340000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2007</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2008</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="9">
+        <v>35.090000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9">
+        <v>59.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9">
+        <v>22.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="9">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9">
+        <v>31.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2008</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2009</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="9">
+        <v>44.911799999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2009</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="9">
+        <v>74.626300000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9">
+        <v>29.908300000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2009</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="9">
+        <v>36.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2009</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="9">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2009</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2009</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="9">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2009</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9">
+        <v>29.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2009</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2010</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="9">
+        <v>41.810600000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2010</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="9">
+        <v>72.206800000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2010</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9">
+        <v>26.398599999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2010</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="9">
+        <v>32.76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2010</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="9">
+        <v>52.96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2010</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9">
+        <v>22.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2010</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="9">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2010</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="9">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2010</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="9">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="9">
+        <v>24.729966999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2010</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="9">
+        <v>53.139009999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2010</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="9">
+        <v>10.232570000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2010</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="9">
+        <v>46.084187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2010</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="9">
+        <v>80.245711</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2010</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="9">
+        <v>28.651246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2011</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="9">
+        <v>39.423000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2011</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="9">
+        <v>73.707599999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2011</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="9">
+        <v>22.058399999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2011</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="9">
+        <v>28.64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2011</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="9">
+        <v>50.89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2011</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="9">
+        <v>17.36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2011</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="9">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2011</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="9">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2011</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="9">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2011</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="9">
+        <v>20.044622</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2011</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="9">
+        <v>47.928699999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2011</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="9">
+        <v>5.9202149999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2011</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="9">
+        <v>40.706766999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2011</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="9">
+        <v>77.225354999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2011</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="9">
+        <v>22.208635000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2012</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="9">
+        <v>36.771000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2012</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="9">
+        <v>70.785499999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2012</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="9">
+        <v>19.541499999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2012</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="9">
+        <v>27.31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2012</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="9">
+        <v>49.07</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2012</v>
+      </c>
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="9">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2012</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="9">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2012</v>
+      </c>
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="9">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2012</v>
+      </c>
+      <c r="B61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="9">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2012</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="9">
+        <v>18.199235999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2012</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="9">
+        <v>43.700085999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2012</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="9">
+        <v>5.1134969999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2012</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="9">
+        <v>37.832745000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2012</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="9">
+        <v>73.821879999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2012</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="9">
+        <v>19.364951999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2013</v>
+      </c>
+      <c r="B68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="9">
+        <v>38.678600000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2013</v>
+      </c>
+      <c r="B69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="9">
+        <v>65.6721</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2013</v>
+      </c>
+      <c r="B70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="9">
+        <v>25.709700000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2013</v>
+      </c>
+      <c r="B71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="9">
+        <v>25.55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2013</v>
+      </c>
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="9">
+        <v>42.03</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2013</v>
+      </c>
+      <c r="B73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="9">
+        <v>17.63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2013</v>
+      </c>
+      <c r="B74" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="9">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2013</v>
+      </c>
+      <c r="B75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="9">
+        <v>17.39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2013</v>
+      </c>
+      <c r="B76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="9">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2013</v>
+      </c>
+      <c r="B77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="9">
+        <v>17.025597000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2013</v>
+      </c>
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="9">
+        <v>40.087994999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2013</v>
+      </c>
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="9">
+        <v>5.9387879999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2013</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="9">
+        <v>38.656950000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2013</v>
+      </c>
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="9">
+        <v>69.124174999999994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2013</v>
+      </c>
+      <c r="B82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="9">
+        <v>24.010411000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2014</v>
+      </c>
+      <c r="B83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" s="9">
+        <v>35.418500000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2014</v>
+      </c>
+      <c r="B84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="9">
+        <v>57.792499999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2014</v>
+      </c>
+      <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="9">
+        <v>24.8048</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2014</v>
+      </c>
+      <c r="B86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" s="9">
+        <v>22.49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2014</v>
+      </c>
+      <c r="B87" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="9">
+        <v>35.29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2014</v>
+      </c>
+      <c r="B88" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="9">
+        <v>16.43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2014</v>
+      </c>
+      <c r="B89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="9">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2014</v>
+      </c>
+      <c r="B90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="9">
+        <v>14.33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2014</v>
+      </c>
+      <c r="B91" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="9">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2014</v>
+      </c>
+      <c r="B92" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92" s="9">
+        <v>15.695417000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2014</v>
+      </c>
+      <c r="B93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="9">
+        <v>36.014206000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2014</v>
+      </c>
+      <c r="B94" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="9">
+        <v>6.0701660000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2014</v>
+      </c>
+      <c r="B95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="9">
+        <v>37.365225000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2014</v>
+      </c>
+      <c r="B96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="9">
+        <v>64.676203000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2014</v>
+      </c>
+      <c r="B97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="9">
+        <v>24.427690999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2015</v>
+      </c>
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D98" s="9">
+        <v>32.853499999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2015</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="9">
+        <v>55.847499999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2015</v>
+      </c>
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="9">
+        <v>22.030100000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2015</v>
+      </c>
+      <c r="B101" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" s="9">
+        <v>23.28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2015</v>
+      </c>
+      <c r="B102" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="9">
+        <v>39.33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2015</v>
+      </c>
+      <c r="B103" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="9">
+        <v>15.68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2015</v>
+      </c>
+      <c r="B104" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" t="s">
+        <v>53</v>
+      </c>
+      <c r="D104" s="9">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2015</v>
+      </c>
+      <c r="B105" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="9">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2015</v>
+      </c>
+      <c r="B106" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="9">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2015</v>
+      </c>
+      <c r="B107" t="s">
+        <v>56</v>
+      </c>
+      <c r="C107" t="s">
+        <v>53</v>
+      </c>
+      <c r="D107" s="9">
+        <v>14.761854</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2015</v>
+      </c>
+      <c r="B108" t="s">
+        <v>56</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="9">
+        <v>35.501897</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2015</v>
+      </c>
+      <c r="B109" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="9">
+        <v>4.9435419999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2015</v>
+      </c>
+      <c r="B110" t="s">
+        <v>57</v>
+      </c>
+      <c r="C110" t="s">
+        <v>53</v>
+      </c>
+      <c r="D110" s="9">
+        <v>34.950605000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2015</v>
+      </c>
+      <c r="B111" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="9">
+        <v>63.391733000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2015</v>
+      </c>
+      <c r="B112" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="9">
+        <v>21.486609000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2016</v>
+      </c>
+      <c r="B113" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" t="s">
+        <v>53</v>
+      </c>
+      <c r="D113" s="9">
+        <v>32.006300000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2016</v>
+      </c>
+      <c r="B114" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="9">
+        <v>52.573700000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2016</v>
+      </c>
+      <c r="B115" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="9">
+        <v>22.3278</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2016</v>
+      </c>
+      <c r="B116" t="s">
+        <v>52</v>
+      </c>
+      <c r="C116" t="s">
+        <v>53</v>
+      </c>
+      <c r="D116" s="9">
+        <v>22.92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2016</v>
+      </c>
+      <c r="B117" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="9">
+        <v>38.18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2016</v>
+      </c>
+      <c r="B118" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="9">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2016</v>
+      </c>
+      <c r="B119" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119" t="s">
+        <v>53</v>
+      </c>
+      <c r="D119" s="9">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>2016</v>
+      </c>
+      <c r="B120" t="s">
+        <v>54</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="9">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2016</v>
+      </c>
+      <c r="B121" t="s">
+        <v>54</v>
+      </c>
+      <c r="C121" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="9">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2016</v>
+      </c>
+      <c r="B122" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" t="s">
+        <v>53</v>
+      </c>
+      <c r="D122" s="9">
+        <v>13.910849000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2016</v>
+      </c>
+      <c r="B123" t="s">
+        <v>56</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="9">
+        <v>31.431615000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2016</v>
+      </c>
+      <c r="B124" t="s">
+        <v>56</v>
+      </c>
+      <c r="C124" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="9">
+        <v>5.6618930000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>2016</v>
+      </c>
+      <c r="B125" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125" t="s">
+        <v>53</v>
+      </c>
+      <c r="D125" s="9">
+        <v>35.099322999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2016</v>
+      </c>
+      <c r="B126" t="s">
+        <v>57</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="9">
+        <v>59.913628000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2016</v>
+      </c>
+      <c r="B127" t="s">
+        <v>57</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="9">
+        <v>23.416495999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2017</v>
+      </c>
+      <c r="B128" t="s">
+        <v>55</v>
+      </c>
+      <c r="C128" t="s">
+        <v>53</v>
+      </c>
+      <c r="D128" s="9">
+        <v>31.808399999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2017</v>
+      </c>
+      <c r="B129" t="s">
+        <v>55</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="9">
+        <v>56.122300000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>2017</v>
+      </c>
+      <c r="B130" t="s">
+        <v>55</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="9">
+        <v>20.496600000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>2017</v>
+      </c>
+      <c r="B131" t="s">
+        <v>52</v>
+      </c>
+      <c r="C131" t="s">
+        <v>53</v>
+      </c>
+      <c r="D131" s="9">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>2017</v>
+      </c>
+      <c r="B132" t="s">
+        <v>52</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="9">
+        <v>39.28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>2017</v>
+      </c>
+      <c r="B133" t="s">
+        <v>52</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="9">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>2017</v>
+      </c>
+      <c r="B134" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" t="s">
+        <v>53</v>
+      </c>
+      <c r="D134" s="9">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>2017</v>
+      </c>
+      <c r="B135" t="s">
+        <v>54</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="9">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>2017</v>
+      </c>
+      <c r="B136" t="s">
+        <v>54</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>2017</v>
+      </c>
+      <c r="B137" t="s">
+        <v>56</v>
+      </c>
+      <c r="C137" t="s">
+        <v>53</v>
+      </c>
+      <c r="D137" s="9">
+        <v>14.237017</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>2017</v>
+      </c>
+      <c r="B138" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="9">
+        <v>35.671908000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2017</v>
+      </c>
+      <c r="B139" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="9">
+        <v>4.2720479999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>2017</v>
+      </c>
+      <c r="B140" t="s">
+        <v>57</v>
+      </c>
+      <c r="C140" t="s">
+        <v>53</v>
+      </c>
+      <c r="D140" s="9">
+        <v>34.594997999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>2017</v>
+      </c>
+      <c r="B141" t="s">
+        <v>57</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="9">
+        <v>63.26811</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>2017</v>
+      </c>
+      <c r="B142" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="9">
+        <v>21.265018000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>2018</v>
+      </c>
+      <c r="B143" t="s">
+        <v>55</v>
+      </c>
+      <c r="C143" t="s">
+        <v>53</v>
+      </c>
+      <c r="D143" s="9">
+        <v>33.534999999999997</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>2018</v>
+      </c>
+      <c r="B144" t="s">
+        <v>55</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="9">
+        <v>59.516300000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>2018</v>
+      </c>
+      <c r="B145" t="s">
+        <v>55</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="9">
+        <v>21.426100000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>2018</v>
+      </c>
+      <c r="B146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C146" t="s">
+        <v>53</v>
+      </c>
+      <c r="D146" s="9">
+        <v>23.22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>2018</v>
+      </c>
+      <c r="B147" t="s">
+        <v>52</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="9">
+        <v>40.020000000000003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>2018</v>
+      </c>
+      <c r="B148" t="s">
+        <v>52</v>
+      </c>
+      <c r="C148" t="s">
+        <v>3</v>
+      </c>
+      <c r="D148" s="9">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>2018</v>
+      </c>
+      <c r="B149" t="s">
+        <v>54</v>
+      </c>
+      <c r="C149" t="s">
+        <v>53</v>
+      </c>
+      <c r="D149" s="9">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>2018</v>
+      </c>
+      <c r="B150" t="s">
+        <v>54</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="9">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>2018</v>
+      </c>
+      <c r="B151" t="s">
+        <v>54</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" s="9">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>2018</v>
+      </c>
+      <c r="B152" t="s">
+        <v>56</v>
+      </c>
+      <c r="C152" t="s">
+        <v>53</v>
+      </c>
+      <c r="D152" s="9">
+        <v>16.657228</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>2018</v>
+      </c>
+      <c r="B153" t="s">
+        <v>56</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="9">
+        <v>39.894401000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>2018</v>
+      </c>
+      <c r="B154" t="s">
+        <v>56</v>
+      </c>
+      <c r="C154" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="9">
+        <v>5.7643599999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>2018</v>
+      </c>
+      <c r="B155" t="s">
+        <v>57</v>
+      </c>
+      <c r="C155" t="s">
+        <v>53</v>
+      </c>
+      <c r="D155" s="9">
+        <v>37.86148</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>2018</v>
+      </c>
+      <c r="B156" t="s">
+        <v>57</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="9">
+        <v>67.732204999999993</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>2018</v>
+      </c>
+      <c r="B157" t="s">
+        <v>57</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" s="9">
+        <v>23.859009</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>2019</v>
+      </c>
+      <c r="B158" t="s">
+        <v>55</v>
+      </c>
+      <c r="C158" t="s">
+        <v>53</v>
+      </c>
+      <c r="D158" s="9">
+        <v>34.157699999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>2019</v>
+      </c>
+      <c r="B159" t="s">
+        <v>55</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="9">
+        <v>61.601799999999997</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>2019</v>
+      </c>
+      <c r="B160" t="s">
+        <v>55</v>
+      </c>
+      <c r="C160" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" s="9">
+        <v>21.361599999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>2019</v>
+      </c>
+      <c r="B161" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" t="s">
+        <v>53</v>
+      </c>
+      <c r="D161" s="9">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>2019</v>
+      </c>
+      <c r="B162" t="s">
+        <v>52</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="9">
+        <v>41.75</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>2019</v>
+      </c>
+      <c r="B163" t="s">
+        <v>52</v>
+      </c>
+      <c r="C163" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163" s="9">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>2019</v>
+      </c>
+      <c r="B164" t="s">
+        <v>54</v>
+      </c>
+      <c r="C164" t="s">
+        <v>53</v>
+      </c>
+      <c r="D164" s="9">
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>2019</v>
+      </c>
+      <c r="B165" t="s">
+        <v>54</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="9">
+        <v>18.690000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>2019</v>
+      </c>
+      <c r="B166" t="s">
+        <v>54</v>
+      </c>
+      <c r="C166" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" s="9">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>2019</v>
+      </c>
+      <c r="B167" t="s">
+        <v>56</v>
+      </c>
+      <c r="C167" t="s">
+        <v>53</v>
+      </c>
+      <c r="D167" s="9">
+        <v>16.888611999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>2019</v>
+      </c>
+      <c r="B168" t="s">
+        <v>56</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="9">
+        <v>41.988256</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>2019</v>
+      </c>
+      <c r="B169" t="s">
+        <v>56</v>
+      </c>
+      <c r="C169" t="s">
+        <v>3</v>
+      </c>
+      <c r="D169" s="9">
+        <v>5.1485050000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>2019</v>
+      </c>
+      <c r="B170" t="s">
+        <v>57</v>
+      </c>
+      <c r="C170" t="s">
+        <v>53</v>
+      </c>
+      <c r="D170" s="9">
+        <v>38.133192000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>2019</v>
+      </c>
+      <c r="B171" t="s">
+        <v>57</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="9">
+        <v>71.144617999999994</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>2019</v>
+      </c>
+      <c r="B172" t="s">
+        <v>57</v>
+      </c>
+      <c r="C172" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="9">
+        <v>22.692430000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>2020</v>
+      </c>
+      <c r="B173" t="s">
+        <v>55</v>
+      </c>
+      <c r="C173" t="s">
+        <v>53</v>
+      </c>
+      <c r="D173" s="9">
+        <v>33.202599999999997</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>2020</v>
+      </c>
+      <c r="B174" t="s">
+        <v>55</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="9">
+        <v>56.658299999999997</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>2020</v>
+      </c>
+      <c r="B175" t="s">
+        <v>55</v>
+      </c>
+      <c r="C175" t="s">
+        <v>3</v>
+      </c>
+      <c r="D175" s="9">
+        <v>22.252500000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>2020</v>
+      </c>
+      <c r="B176" t="s">
+        <v>52</v>
+      </c>
+      <c r="C176" t="s">
+        <v>53</v>
+      </c>
+      <c r="D176" s="9">
+        <v>33.043500000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>2020</v>
+      </c>
+      <c r="B177" t="s">
+        <v>52</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="9">
+        <v>49.241</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>2020</v>
+      </c>
+      <c r="B178" t="s">
+        <v>52</v>
+      </c>
+      <c r="C178" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="9">
+        <v>25.449300000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>2020</v>
+      </c>
+      <c r="B179" t="s">
+        <v>54</v>
+      </c>
+      <c r="C179" t="s">
+        <v>53</v>
+      </c>
+      <c r="D179" s="9">
+        <v>15.442399999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>2020</v>
+      </c>
+      <c r="B180" t="s">
+        <v>54</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="9">
+        <v>29.090499999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>2020</v>
+      </c>
+      <c r="B181" t="s">
+        <v>54</v>
+      </c>
+      <c r="C181" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" s="9">
+        <v>9.0434999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>2020</v>
+      </c>
+      <c r="B182" t="s">
+        <v>56</v>
+      </c>
+      <c r="C182" t="s">
+        <v>53</v>
+      </c>
+      <c r="D182" s="9">
+        <v>18.436256</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>2020</v>
+      </c>
+      <c r="B183" t="s">
+        <v>56</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="9">
+        <v>44.939771999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>2020</v>
+      </c>
+      <c r="B184" t="s">
+        <v>56</v>
+      </c>
+      <c r="C184" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184" s="9">
+        <v>6.0101279999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>2020</v>
+      </c>
+      <c r="B185" t="s">
+        <v>57</v>
+      </c>
+      <c r="C185" t="s">
+        <v>53</v>
+      </c>
+      <c r="D185" s="9">
+        <v>40.917270000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>2020</v>
+      </c>
+      <c r="B186" t="s">
+        <v>57</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="9">
+        <v>69.931898000000004</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>2020</v>
+      </c>
+      <c r="B187" t="s">
+        <v>57</v>
+      </c>
+      <c r="C187" t="s">
+        <v>3</v>
+      </c>
+      <c r="D187" s="9">
+        <v>27.313811000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>2021</v>
+      </c>
+      <c r="B188" t="s">
+        <v>55</v>
+      </c>
+      <c r="C188" t="s">
+        <v>53</v>
+      </c>
+      <c r="D188" s="9">
+        <v>33.154400000000003</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>2021</v>
+      </c>
+      <c r="B189" t="s">
+        <v>55</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" s="9">
+        <v>56.980800000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>2021</v>
+      </c>
+      <c r="B190" t="s">
+        <v>55</v>
+      </c>
+      <c r="C190" t="s">
+        <v>3</v>
+      </c>
+      <c r="D190" s="9">
+        <v>22.031099999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>2021</v>
+      </c>
+      <c r="B191" t="s">
+        <v>52</v>
+      </c>
+      <c r="C191" t="s">
+        <v>53</v>
+      </c>
+      <c r="D191" s="9">
+        <v>27.685199999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>2021</v>
+      </c>
+      <c r="B192" t="s">
+        <v>52</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="9">
+        <v>42.363199999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>2021</v>
+      </c>
+      <c r="B193" t="s">
+        <v>52</v>
+      </c>
+      <c r="C193" t="s">
+        <v>3</v>
+      </c>
+      <c r="D193" s="9">
+        <v>20.7851</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>2021</v>
+      </c>
+      <c r="B194" t="s">
+        <v>54</v>
+      </c>
+      <c r="C194" t="s">
+        <v>53</v>
+      </c>
+      <c r="D194" s="9">
+        <v>10.510999999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>2021</v>
+      </c>
+      <c r="B195" t="s">
+        <v>54</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="9">
+        <v>20.270700000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>2021</v>
+      </c>
+      <c r="B196" t="s">
+        <v>54</v>
+      </c>
+      <c r="C196" t="s">
+        <v>3</v>
+      </c>
+      <c r="D196" s="9">
+        <v>5.923</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>2021</v>
+      </c>
+      <c r="B197" t="s">
+        <v>56</v>
+      </c>
+      <c r="C197" t="s">
+        <v>53</v>
+      </c>
+      <c r="D197" s="9">
+        <v>18.735568000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>2021</v>
+      </c>
+      <c r="B198" t="s">
+        <v>56</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="9">
+        <v>43.935079000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>2021</v>
+      </c>
+      <c r="B199" t="s">
+        <v>56</v>
+      </c>
+      <c r="C199" t="s">
+        <v>3</v>
+      </c>
+      <c r="D199" s="9">
+        <v>6.8891590000000003</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>2021</v>
+      </c>
+      <c r="B200" t="s">
+        <v>57</v>
+      </c>
+      <c r="C200" t="s">
+        <v>53</v>
+      </c>
+      <c r="D200" s="9">
+        <v>39.156933000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>2021</v>
+      </c>
+      <c r="B201" t="s">
+        <v>57</v>
+      </c>
+      <c r="C201" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="9">
+        <v>70.742571999999996</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>2021</v>
+      </c>
+      <c r="B202" t="s">
+        <v>57</v>
+      </c>
+      <c r="C202" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" s="9">
+        <v>24.308375999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>2022</v>
+      </c>
+      <c r="B203" t="s">
+        <v>55</v>
+      </c>
+      <c r="C203" t="s">
+        <v>53</v>
+      </c>
+      <c r="D203" s="9">
+        <v>31.440438780000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>2022</v>
+      </c>
+      <c r="B204" t="s">
+        <v>55</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" s="9">
+        <v>53.261673930000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>2022</v>
+      </c>
+      <c r="B205" t="s">
+        <v>55</v>
+      </c>
+      <c r="C205" t="s">
+        <v>3</v>
+      </c>
+      <c r="D205" s="9">
+        <v>21.253298999999998</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>2022</v>
+      </c>
+      <c r="B206" t="s">
+        <v>52</v>
+      </c>
+      <c r="C206" t="s">
+        <v>53</v>
+      </c>
+      <c r="D206" s="9">
+        <v>25.229585159999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>2022</v>
+      </c>
+      <c r="B207" t="s">
+        <v>52</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="9">
+        <v>41.035531200000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>2022</v>
+      </c>
+      <c r="B208" t="s">
+        <v>52</v>
+      </c>
+      <c r="C208" t="s">
+        <v>3</v>
+      </c>
+      <c r="D208" s="9">
+        <v>17.84178649</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>2022</v>
+      </c>
+      <c r="B209" t="s">
+        <v>54</v>
+      </c>
+      <c r="C209" t="s">
+        <v>53</v>
+      </c>
+      <c r="D209" s="9">
+        <v>8.2472787780000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>2022</v>
+      </c>
+      <c r="B210" t="s">
+        <v>54</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" s="9">
+        <v>17.444232589999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>2022</v>
+      </c>
+      <c r="B211" t="s">
+        <v>54</v>
+      </c>
+      <c r="C211" t="s">
+        <v>3</v>
+      </c>
+      <c r="D211" s="9">
+        <v>3.9485646700000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>2022</v>
+      </c>
+      <c r="B212" t="s">
+        <v>56</v>
+      </c>
+      <c r="C212" t="s">
+        <v>53</v>
+      </c>
+      <c r="D212" s="9">
+        <v>16.594957690000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>2022</v>
+      </c>
+      <c r="B213" t="s">
+        <v>56</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" s="9">
+        <v>41.285719530000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>2022</v>
+      </c>
+      <c r="B214" t="s">
+        <v>56</v>
+      </c>
+      <c r="C214" t="s">
+        <v>3</v>
+      </c>
+      <c r="D214" s="9">
+        <v>5.0543401819999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>2022</v>
+      </c>
+      <c r="B215" t="s">
+        <v>57</v>
+      </c>
+      <c r="C215" t="s">
+        <v>53</v>
+      </c>
+      <c r="D215" s="9">
+        <v>38.124598239999997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>2022</v>
+      </c>
+      <c r="B216" t="s">
+        <v>57</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" s="9">
+        <v>70.110814680000004</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>2022</v>
+      </c>
+      <c r="B217" t="s">
+        <v>57</v>
+      </c>
+      <c r="C217" t="s">
+        <v>3</v>
+      </c>
+      <c r="D217" s="9">
+        <v>23.174039319999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>2023</v>
+      </c>
+      <c r="B218" t="s">
+        <v>55</v>
+      </c>
+      <c r="C218" t="s">
+        <v>53</v>
+      </c>
+      <c r="D218" s="9">
+        <v>30.84322002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>2023</v>
+      </c>
+      <c r="B219" t="s">
+        <v>55</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" s="9">
+        <v>51.976873140000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>2023</v>
+      </c>
+      <c r="B220" t="s">
+        <v>55</v>
+      </c>
+      <c r="C220" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220" s="9">
+        <v>20.97734097</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>2023</v>
+      </c>
+      <c r="B221" t="s">
+        <v>52</v>
+      </c>
+      <c r="C221" t="s">
+        <v>53</v>
+      </c>
+      <c r="D221" s="9">
+        <v>26.012596330000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>2023</v>
+      </c>
+      <c r="B222" t="s">
+        <v>52</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="9">
+        <v>42.197926699999996</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>2023</v>
+      </c>
+      <c r="B223" t="s">
+        <v>52</v>
+      </c>
+      <c r="C223" t="s">
+        <v>3</v>
+      </c>
+      <c r="D223" s="9">
+        <v>18.44573098</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>2023</v>
+      </c>
+      <c r="B224" t="s">
+        <v>54</v>
+      </c>
+      <c r="C224" t="s">
+        <v>53</v>
+      </c>
+      <c r="D224" s="9">
+        <v>9.8093676980000009</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>2023</v>
+      </c>
+      <c r="B225" t="s">
+        <v>54</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" s="9">
+        <v>23.741684809999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>2023</v>
+      </c>
+      <c r="B226" t="s">
+        <v>54</v>
+      </c>
+      <c r="C226" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226" s="9">
+        <v>3.2958171460000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>2023</v>
+      </c>
+      <c r="B227" t="s">
+        <v>56</v>
+      </c>
+      <c r="C227" t="s">
+        <v>53</v>
+      </c>
+      <c r="D227" s="9">
+        <v>16.069745510000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>2023</v>
+      </c>
+      <c r="B228" t="s">
+        <v>56</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" s="9">
+        <v>40.191189610000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>2023</v>
+      </c>
+      <c r="B229" t="s">
+        <v>56</v>
+      </c>
+      <c r="C229" t="s">
+        <v>3</v>
+      </c>
+      <c r="D229" s="9">
+        <v>4.7926374440000004</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>2023</v>
+      </c>
+      <c r="B230" t="s">
+        <v>57</v>
+      </c>
+      <c r="C230" t="s">
+        <v>53</v>
+      </c>
+      <c r="D230" s="9">
+        <v>37.290274830000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>2023</v>
+      </c>
+      <c r="B231" t="s">
+        <v>57</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="9">
+        <v>67.895202359999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>2023</v>
+      </c>
+      <c r="B232" t="s">
+        <v>57</v>
+      </c>
+      <c r="C232" t="s">
+        <v>3</v>
+      </c>
+      <c r="D232" s="9">
+        <v>22.982048769999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>2024</v>
+      </c>
+      <c r="B233" t="s">
+        <v>55</v>
+      </c>
+      <c r="C233" t="s">
+        <v>53</v>
+      </c>
+      <c r="D233" s="9">
+        <v>32.398741899999997</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>2024</v>
+      </c>
+      <c r="B234" t="s">
+        <v>55</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" s="9">
+        <v>50.848794419999997</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>2024</v>
+      </c>
+      <c r="B235" t="s">
+        <v>55</v>
+      </c>
+      <c r="C235" t="s">
+        <v>3</v>
+      </c>
+      <c r="D235" s="9">
+        <v>23.785570379999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>2024</v>
+      </c>
+      <c r="B236" t="s">
+        <v>52</v>
+      </c>
+      <c r="C236" t="s">
+        <v>53</v>
+      </c>
+      <c r="D236" s="9">
+        <v>27.992296719999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>2024</v>
+      </c>
+      <c r="B237" t="s">
+        <v>52</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" s="9">
+        <v>43.310447930000002</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>2024</v>
+      </c>
+      <c r="B238" t="s">
+        <v>52</v>
+      </c>
+      <c r="C238" t="s">
+        <v>3</v>
+      </c>
+      <c r="D238" s="9">
+        <v>20.85620574</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>2024</v>
+      </c>
+      <c r="B239" t="s">
+        <v>54</v>
+      </c>
+      <c r="C239" t="s">
+        <v>53</v>
+      </c>
+      <c r="D239" s="9">
+        <v>12.65747844</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>2024</v>
+      </c>
+      <c r="B240" t="s">
+        <v>54</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" s="9">
+        <v>26.996443849999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>2024</v>
+      </c>
+      <c r="B241" t="s">
+        <v>54</v>
+      </c>
+      <c r="C241" t="s">
+        <v>3</v>
+      </c>
+      <c r="D241" s="9">
+        <v>5.9775494900000004</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>2024</v>
+      </c>
+      <c r="B242" t="s">
+        <v>56</v>
+      </c>
+      <c r="C242" t="s">
+        <v>53</v>
+      </c>
+      <c r="D242" s="9">
+        <v>18.9819906</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>2024</v>
+      </c>
+      <c r="B243" t="s">
+        <v>56</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" s="9">
+        <v>46.397082269999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>2024</v>
+      </c>
+      <c r="B244" t="s">
+        <v>56</v>
+      </c>
+      <c r="C244" t="s">
+        <v>3</v>
+      </c>
+      <c r="D244" s="9">
+        <v>6.2104370519999996</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>2024</v>
+      </c>
+      <c r="B245" t="s">
+        <v>57</v>
+      </c>
+      <c r="C245" t="s">
+        <v>53</v>
+      </c>
+      <c r="D245" s="9">
+        <v>40.775305770000003</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>2024</v>
+      </c>
+      <c r="B246" t="s">
+        <v>57</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" s="9">
+        <v>71.209594429999996</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>2024</v>
+      </c>
+      <c r="B247" t="s">
+        <v>57</v>
+      </c>
+      <c r="C247" t="s">
+        <v>3</v>
+      </c>
+      <c r="D247" s="9">
+        <v>26.597233630000002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>2025</v>
+      </c>
+      <c r="B248" t="s">
+        <v>55</v>
+      </c>
+      <c r="C248" t="s">
+        <v>53</v>
+      </c>
+      <c r="D248" s="9">
+        <v>30.842156750000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>2025</v>
+      </c>
+      <c r="B249" t="s">
+        <v>55</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" s="9">
+        <v>53.864609549999997</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>2025</v>
+      </c>
+      <c r="B250" t="s">
+        <v>55</v>
+      </c>
+      <c r="C250" t="s">
+        <v>3</v>
+      </c>
+      <c r="D250" s="9">
+        <v>20.09441739</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>2025</v>
+      </c>
+      <c r="B251" t="s">
+        <v>52</v>
+      </c>
+      <c r="C251" t="s">
+        <v>53</v>
+      </c>
+      <c r="D251" s="9">
+        <v>21.370955349999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>2025</v>
+      </c>
+      <c r="B252" t="s">
+        <v>52</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" s="9">
+        <v>37.583563470000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>2025</v>
+      </c>
+      <c r="B253" t="s">
+        <v>52</v>
+      </c>
+      <c r="C253" t="s">
+        <v>3</v>
+      </c>
+      <c r="D253" s="9">
+        <v>13.811168650000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>2025</v>
+      </c>
+      <c r="B254" t="s">
+        <v>54</v>
+      </c>
+      <c r="C254" t="s">
+        <v>53</v>
+      </c>
+      <c r="D254" s="9">
+        <v>8.3290648039999997</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>2025</v>
+      </c>
+      <c r="B255" t="s">
+        <v>54</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" s="9">
+        <v>19.726271570000002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>2025</v>
+      </c>
+      <c r="B256" t="s">
+        <v>54</v>
+      </c>
+      <c r="C256" t="s">
+        <v>3</v>
+      </c>
+      <c r="D256" s="9">
+        <v>3.0146544749999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>2025</v>
+      </c>
+      <c r="B257" t="s">
+        <v>56</v>
+      </c>
+      <c r="C257" t="s">
+        <v>53</v>
+      </c>
+      <c r="D257" s="9">
+        <v>18.10451793</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>2025</v>
+      </c>
+      <c r="B258" t="s">
+        <v>56</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" s="9">
+        <v>34.821735629999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>2025</v>
+      </c>
+      <c r="B259" t="s">
+        <v>56</v>
+      </c>
+      <c r="C259" t="s">
+        <v>3</v>
+      </c>
+      <c r="D259" s="9">
+        <v>10.30943654</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>2025</v>
+      </c>
+      <c r="B260" t="s">
+        <v>57</v>
+      </c>
+      <c r="C260" t="s">
+        <v>53</v>
+      </c>
+      <c r="D260" s="9">
+        <v>41.65475112</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>2025</v>
+      </c>
+      <c r="B261" t="s">
+        <v>57</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" s="9">
+        <v>66.873313999999993</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>2025</v>
+      </c>
+      <c r="B262" t="s">
+        <v>57</v>
+      </c>
+      <c r="C262" t="s">
+        <v>3</v>
+      </c>
+      <c r="D262" s="9">
+        <v>29.895572430000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C89"/>
   <sheetViews>
@@ -5291,11 +8997,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -5977,7 +9683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -6267,7 +9973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
